--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.138203163302827</v>
+        <v>0.1541183333333334</v>
       </c>
       <c r="H2">
-        <v>0.138203163302827</v>
+        <v>0.4623550000000001</v>
       </c>
       <c r="I2">
-        <v>0.07236030863151487</v>
+        <v>0.07333767099777493</v>
       </c>
       <c r="J2">
-        <v>0.07236030863151487</v>
+        <v>0.08626837299626681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>0.8016562939449516</v>
+        <v>1.304555027492778</v>
       </c>
       <c r="R2">
-        <v>0.8016562939449516</v>
+        <v>11.740995247435</v>
       </c>
       <c r="S2">
-        <v>0.002432215350116155</v>
+        <v>0.003381211419263222</v>
       </c>
       <c r="T2">
-        <v>0.002432215350116155</v>
+        <v>0.004172403237150303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.138203163302827</v>
+        <v>0.1541183333333334</v>
       </c>
       <c r="H3">
-        <v>0.138203163302827</v>
+        <v>0.4623550000000001</v>
       </c>
       <c r="I3">
-        <v>0.07236030863151487</v>
+        <v>0.07333767099777493</v>
       </c>
       <c r="J3">
-        <v>0.07236030863151487</v>
+        <v>0.08626837299626681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>4.943162697025552</v>
+        <v>6.045274158255557</v>
       </c>
       <c r="R3">
-        <v>4.943162697025552</v>
+        <v>54.40746742430001</v>
       </c>
       <c r="S3">
-        <v>0.01499749491226811</v>
+        <v>0.01566844601086305</v>
       </c>
       <c r="T3">
-        <v>0.01499749491226811</v>
+        <v>0.01933480837204944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.138203163302827</v>
+        <v>0.1541183333333334</v>
       </c>
       <c r="H4">
-        <v>0.138203163302827</v>
+        <v>0.4623550000000001</v>
       </c>
       <c r="I4">
-        <v>0.07236030863151487</v>
+        <v>0.07333767099777493</v>
       </c>
       <c r="J4">
-        <v>0.07236030863151487</v>
+        <v>0.08626837299626681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>7.119516995928474</v>
+        <v>8.518218405338891</v>
       </c>
       <c r="R4">
-        <v>7.119516995928474</v>
+        <v>76.66396564805002</v>
       </c>
       <c r="S4">
-        <v>0.02160052712577987</v>
+        <v>0.02207794745098972</v>
       </c>
       <c r="T4">
-        <v>0.02160052712577987</v>
+        <v>0.0272441110571597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.138203163302827</v>
+        <v>0.1541183333333334</v>
       </c>
       <c r="H5">
-        <v>0.138203163302827</v>
+        <v>0.4623550000000001</v>
       </c>
       <c r="I5">
-        <v>0.07236030863151487</v>
+        <v>0.07333767099777493</v>
       </c>
       <c r="J5">
-        <v>0.07236030863151487</v>
+        <v>0.08626837299626681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>7.547185710814785</v>
+        <v>8.459693817675557</v>
       </c>
       <c r="R5">
-        <v>7.547185710814785</v>
+        <v>76.13724435908001</v>
       </c>
       <c r="S5">
-        <v>0.02289806875424037</v>
+        <v>0.02192626047731315</v>
       </c>
       <c r="T5">
-        <v>0.02289806875424037</v>
+        <v>0.02705692985447124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.138203163302827</v>
+        <v>0.1541183333333334</v>
       </c>
       <c r="H6">
-        <v>0.138203163302827</v>
+        <v>0.4623550000000001</v>
       </c>
       <c r="I6">
-        <v>0.07236030863151487</v>
+        <v>0.07333767099777493</v>
       </c>
       <c r="J6">
-        <v>0.07236030863151487</v>
+        <v>0.08626837299626681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>3.438379933522473</v>
+        <v>3.967746669769167</v>
       </c>
       <c r="R6">
-        <v>3.438379933522473</v>
+        <v>23.806480018615</v>
       </c>
       <c r="S6">
-        <v>0.01043200248911036</v>
+        <v>0.01028380563934578</v>
       </c>
       <c r="T6">
-        <v>0.01043200248911036</v>
+        <v>0.008460120475436135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.69157487614212</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H7">
-        <v>0.69157487614212</v>
+        <v>2.28375</v>
       </c>
       <c r="I7">
-        <v>0.362094255178469</v>
+        <v>0.3622430948971428</v>
       </c>
       <c r="J7">
-        <v>0.362094255178469</v>
+        <v>0.4261128285196966</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>4.011524330877529</v>
+        <v>6.443701363750002</v>
       </c>
       <c r="R7">
-        <v>4.011524330877529</v>
+        <v>57.99331227375001</v>
       </c>
       <c r="S7">
-        <v>0.01217091555149039</v>
+        <v>0.01670110970735124</v>
       </c>
       <c r="T7">
-        <v>0.01217091555149039</v>
+        <v>0.0206091118141731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.69157487614212</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H8">
-        <v>0.69157487614212</v>
+        <v>2.28375</v>
       </c>
       <c r="I8">
-        <v>0.362094255178469</v>
+        <v>0.3622430948971428</v>
       </c>
       <c r="J8">
-        <v>0.362094255178469</v>
+        <v>0.4261128285196966</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>24.73580957372968</v>
+        <v>29.859944975</v>
       </c>
       <c r="R8">
-        <v>24.73580957372968</v>
+        <v>268.7395047750001</v>
       </c>
       <c r="S8">
-        <v>0.07504814244857254</v>
+        <v>0.07739250917002839</v>
       </c>
       <c r="T8">
-        <v>0.07504814244857254</v>
+        <v>0.09550208956249616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.69157487614212</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H9">
-        <v>0.69157487614212</v>
+        <v>2.28375</v>
       </c>
       <c r="I9">
-        <v>0.362094255178469</v>
+        <v>0.3622430948971428</v>
       </c>
       <c r="J9">
-        <v>0.362094255178469</v>
+        <v>0.4261128285196966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>35.62638485967446</v>
+        <v>42.0747721625</v>
       </c>
       <c r="R9">
-        <v>35.62638485967446</v>
+        <v>378.6729494625001</v>
       </c>
       <c r="S9">
-        <v>0.1080900141112049</v>
+        <v>0.1090515134284214</v>
       </c>
       <c r="T9">
-        <v>0.1080900141112049</v>
+        <v>0.1345691916963988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.69157487614212</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H10">
-        <v>0.69157487614212</v>
+        <v>2.28375</v>
       </c>
       <c r="I10">
-        <v>0.362094255178469</v>
+        <v>0.3622430948971428</v>
       </c>
       <c r="J10">
-        <v>0.362094255178469</v>
+        <v>0.4261128285196966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>37.76645844018497</v>
+        <v>41.78569661</v>
       </c>
       <c r="R10">
-        <v>37.76645844018497</v>
+        <v>376.0712694900001</v>
       </c>
       <c r="S10">
-        <v>0.1145829710707034</v>
+        <v>0.1083022728532489</v>
       </c>
       <c r="T10">
-        <v>0.1145829710707034</v>
+        <v>0.1336446314090876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.69157487614212</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H11">
-        <v>0.69157487614212</v>
+        <v>2.28375</v>
       </c>
       <c r="I11">
-        <v>0.362094255178469</v>
+        <v>0.3622430948971428</v>
       </c>
       <c r="J11">
-        <v>0.362094255178469</v>
+        <v>0.4261128285196966</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N11">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O11">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P11">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q11">
-        <v>17.20580860689108</v>
+        <v>19.598233948125</v>
       </c>
       <c r="R11">
-        <v>17.20580860689108</v>
+        <v>117.58940368875</v>
       </c>
       <c r="S11">
-        <v>0.05220221199649784</v>
+        <v>0.05079568973809288</v>
       </c>
       <c r="T11">
-        <v>0.05220221199649784</v>
+        <v>0.04178780403754101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.164917085993861</v>
+        <v>0.04595933333333333</v>
       </c>
       <c r="H12">
-        <v>0.164917085993861</v>
+        <v>0.137878</v>
       </c>
       <c r="I12">
-        <v>0.08634716424672283</v>
+        <v>0.02186988656298993</v>
       </c>
       <c r="J12">
-        <v>0.08634716424672283</v>
+        <v>0.02572592646771263</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N12">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O12">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P12">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q12">
-        <v>0.9566121122448662</v>
+        <v>0.3890288589517778</v>
       </c>
       <c r="R12">
-        <v>0.9566121122448662</v>
+        <v>3.501259730566</v>
       </c>
       <c r="S12">
-        <v>0.00290234939971515</v>
+        <v>0.001008304588606535</v>
       </c>
       <c r="T12">
-        <v>0.00290234939971515</v>
+        <v>0.001244244386957661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.164917085993861</v>
+        <v>0.04595933333333333</v>
       </c>
       <c r="H13">
-        <v>0.164917085993861</v>
+        <v>0.137878</v>
       </c>
       <c r="I13">
-        <v>0.08634716424672283</v>
+        <v>0.02186988656298993</v>
       </c>
       <c r="J13">
-        <v>0.08634716424672283</v>
+        <v>0.02572592646771263</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N13">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P13">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q13">
-        <v>5.898649264639034</v>
+        <v>1.802749641275556</v>
       </c>
       <c r="R13">
-        <v>5.898649264639034</v>
+        <v>16.22474677148</v>
       </c>
       <c r="S13">
-        <v>0.01789642942339526</v>
+        <v>0.004672457308963404</v>
       </c>
       <c r="T13">
-        <v>0.01789642942339526</v>
+        <v>0.00576579621442708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.164917085993861</v>
+        <v>0.04595933333333333</v>
       </c>
       <c r="H14">
-        <v>0.164917085993861</v>
+        <v>0.137878</v>
       </c>
       <c r="I14">
-        <v>0.08634716424672283</v>
+        <v>0.02186988656298993</v>
       </c>
       <c r="J14">
-        <v>0.08634716424672283</v>
+        <v>0.02572592646771263</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N14">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O14">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P14">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q14">
-        <v>8.495681058179324</v>
+        <v>2.540201614108889</v>
       </c>
       <c r="R14">
-        <v>8.495681058179324</v>
+        <v>22.86181452698</v>
       </c>
       <c r="S14">
-        <v>0.02577579198899638</v>
+        <v>0.006583822471147841</v>
       </c>
       <c r="T14">
-        <v>0.02577579198899638</v>
+        <v>0.008124414236547814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.164917085993861</v>
+        <v>0.04595933333333333</v>
       </c>
       <c r="H15">
-        <v>0.164917085993861</v>
+        <v>0.137878</v>
       </c>
       <c r="I15">
-        <v>0.08634716424672283</v>
+        <v>0.02186988656298993</v>
       </c>
       <c r="J15">
-        <v>0.08634716424672283</v>
+        <v>0.02572592646771263</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N15">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O15">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P15">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q15">
-        <v>9.006015818572951</v>
+        <v>2.522749108787556</v>
       </c>
       <c r="R15">
-        <v>9.006015818572951</v>
+        <v>22.704741979088</v>
       </c>
       <c r="S15">
-        <v>0.0273241413842454</v>
+        <v>0.006538588188926218</v>
       </c>
       <c r="T15">
-        <v>0.0273241413842454</v>
+        <v>0.008068595288197996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.164917085993861</v>
+        <v>0.04595933333333333</v>
       </c>
       <c r="H16">
-        <v>0.164917085993861</v>
+        <v>0.137878</v>
       </c>
       <c r="I16">
-        <v>0.08634716424672283</v>
+        <v>0.02186988656298993</v>
       </c>
       <c r="J16">
-        <v>0.08634716424672283</v>
+        <v>0.02572592646771263</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N16">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O16">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P16">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q16">
-        <v>4.103000145762167</v>
+        <v>1.183214143535667</v>
       </c>
       <c r="R16">
-        <v>4.103000145762167</v>
+        <v>7.099284861214</v>
       </c>
       <c r="S16">
-        <v>0.01244845205037064</v>
+        <v>0.003066714005345931</v>
       </c>
       <c r="T16">
-        <v>0.01244845205037064</v>
+        <v>0.002522876341582081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.915235414059137</v>
+        <v>0.1951896666666667</v>
       </c>
       <c r="H17">
-        <v>0.915235414059137</v>
+        <v>0.585569</v>
       </c>
       <c r="I17">
-        <v>0.4791982719432932</v>
+        <v>0.09288158810545157</v>
       </c>
       <c r="J17">
-        <v>0.4791982719432932</v>
+        <v>0.1092582212954352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N17">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O17">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P17">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q17">
-        <v>5.308881595670487</v>
+        <v>1.652208763599222</v>
       </c>
       <c r="R17">
-        <v>5.308881595670487</v>
+        <v>14.869878872393</v>
       </c>
       <c r="S17">
-        <v>0.01610708155910215</v>
+        <v>0.004282277880776773</v>
       </c>
       <c r="T17">
-        <v>0.01610708155910215</v>
+        <v>0.00528431614489919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.915235414059137</v>
+        <v>0.1951896666666667</v>
       </c>
       <c r="H18">
-        <v>0.915235414059137</v>
+        <v>0.585569</v>
       </c>
       <c r="I18">
-        <v>0.4791982719432932</v>
+        <v>0.09288158810545157</v>
       </c>
       <c r="J18">
-        <v>0.4791982719432932</v>
+        <v>0.1092582212954352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N18">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P18">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q18">
-        <v>32.73555720183228</v>
+        <v>7.656292553504445</v>
       </c>
       <c r="R18">
-        <v>32.73555720183228</v>
+        <v>68.90663298154</v>
       </c>
       <c r="S18">
-        <v>0.09931927850162839</v>
+        <v>0.01984396462055144</v>
       </c>
       <c r="T18">
-        <v>0.09931927850162839</v>
+        <v>0.02448738394439904</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.915235414059137</v>
+        <v>0.1951896666666667</v>
       </c>
       <c r="H19">
-        <v>0.915235414059137</v>
+        <v>0.585569</v>
       </c>
       <c r="I19">
-        <v>0.4791982719432932</v>
+        <v>0.09288158810545157</v>
       </c>
       <c r="J19">
-        <v>0.4791982719432932</v>
+        <v>0.1092582212954352</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N19">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O19">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P19">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q19">
-        <v>47.14822678401293</v>
+        <v>10.78825714742111</v>
       </c>
       <c r="R19">
-        <v>47.14822678401293</v>
+        <v>97.09431432679001</v>
       </c>
       <c r="S19">
-        <v>0.1430471410016877</v>
+        <v>0.02796154818468189</v>
       </c>
       <c r="T19">
-        <v>0.1430471410016877</v>
+        <v>0.03450445408318271</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.915235414059137</v>
+        <v>0.1951896666666667</v>
       </c>
       <c r="H20">
-        <v>0.915235414059137</v>
+        <v>0.585569</v>
       </c>
       <c r="I20">
-        <v>0.4791982719432932</v>
+        <v>0.09288158810545157</v>
       </c>
       <c r="J20">
-        <v>0.4791982719432932</v>
+        <v>0.1092582212954352</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N20">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O20">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P20">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q20">
-        <v>49.98041632291261</v>
+        <v>10.71413621378044</v>
       </c>
       <c r="R20">
-        <v>49.98041632291261</v>
+        <v>96.427225924024</v>
       </c>
       <c r="S20">
-        <v>0.1516399692785692</v>
+        <v>0.02776943781604996</v>
       </c>
       <c r="T20">
-        <v>0.1516399692785692</v>
+        <v>0.03426739055044904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1951896666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.585569</v>
+      </c>
+      <c r="I21">
+        <v>0.09288158810545157</v>
+      </c>
+      <c r="J21">
+        <v>0.1092582212954352</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.7448065</v>
+      </c>
+      <c r="N21">
+        <v>51.489613</v>
+      </c>
+      <c r="O21">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P21">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q21">
+        <v>5.025120199132833</v>
+      </c>
+      <c r="R21">
+        <v>30.150721194797</v>
+      </c>
+      <c r="S21">
+        <v>0.01302435960339149</v>
+      </c>
+      <c r="T21">
+        <v>0.01071467657250524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.944972</v>
+      </c>
+      <c r="H22">
+        <v>1.889944</v>
+      </c>
+      <c r="I22">
+        <v>0.4496677594366408</v>
+      </c>
+      <c r="J22">
+        <v>0.3526346507208886</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.464632333333334</v>
+      </c>
+      <c r="N22">
+        <v>25.393897</v>
+      </c>
+      <c r="O22">
+        <v>0.04610470135281236</v>
+      </c>
+      <c r="P22">
+        <v>0.0483653868994476</v>
+      </c>
+      <c r="Q22">
+        <v>7.998840545294668</v>
+      </c>
+      <c r="R22">
+        <v>47.99304327176801</v>
+      </c>
+      <c r="S22">
+        <v>0.0207317977568146</v>
+      </c>
+      <c r="T22">
+        <v>0.01705531131626735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.944972</v>
+      </c>
+      <c r="H23">
+        <v>1.889944</v>
+      </c>
+      <c r="I23">
+        <v>0.4496677594366408</v>
+      </c>
+      <c r="J23">
+        <v>0.3526346507208886</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.22488666666667</v>
+      </c>
+      <c r="N23">
+        <v>117.67466</v>
+      </c>
+      <c r="O23">
+        <v>0.2136479901487249</v>
+      </c>
+      <c r="P23">
+        <v>0.2241239483314023</v>
+      </c>
+      <c r="Q23">
+        <v>37.06641960317334</v>
+      </c>
+      <c r="R23">
+        <v>222.39851761904</v>
+      </c>
+      <c r="S23">
+        <v>0.09607061303831864</v>
+      </c>
+      <c r="T23">
+        <v>0.07903387023803052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.944972</v>
+      </c>
+      <c r="H24">
+        <v>1.889944</v>
+      </c>
+      <c r="I24">
+        <v>0.4496677594366408</v>
+      </c>
+      <c r="J24">
+        <v>0.3526346507208886</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>55.27063666666667</v>
+      </c>
+      <c r="N24">
+        <v>165.81191</v>
+      </c>
+      <c r="O24">
+        <v>0.3010451129769252</v>
+      </c>
+      <c r="P24">
+        <v>0.3158064782135008</v>
+      </c>
+      <c r="Q24">
+        <v>52.22920407217334</v>
+      </c>
+      <c r="R24">
+        <v>313.37522443304</v>
+      </c>
+      <c r="S24">
+        <v>0.1353702814416843</v>
+      </c>
+      <c r="T24">
+        <v>0.1113643071402118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.915235414059137</v>
-      </c>
-      <c r="H21">
-        <v>0.915235414059137</v>
-      </c>
-      <c r="I21">
-        <v>0.4791982719432932</v>
-      </c>
-      <c r="J21">
-        <v>0.4791982719432932</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="N21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="O21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="P21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="Q21">
-        <v>22.77029705358196</v>
-      </c>
-      <c r="R21">
-        <v>22.77029705358196</v>
-      </c>
-      <c r="S21">
-        <v>0.06908480160230578</v>
-      </c>
-      <c r="T21">
-        <v>0.06908480160230578</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.944972</v>
+      </c>
+      <c r="H25">
+        <v>1.889944</v>
+      </c>
+      <c r="I25">
+        <v>0.4496677594366408</v>
+      </c>
+      <c r="J25">
+        <v>0.3526346507208886</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.89089866666666</v>
+      </c>
+      <c r="N25">
+        <v>164.672696</v>
+      </c>
+      <c r="O25">
+        <v>0.2989767765870066</v>
+      </c>
+      <c r="P25">
+        <v>0.3136367235724047</v>
+      </c>
+      <c r="Q25">
+        <v>51.87036229483734</v>
+      </c>
+      <c r="R25">
+        <v>311.222173769024</v>
+      </c>
+      <c r="S25">
+        <v>0.1344402172514684</v>
+      </c>
+      <c r="T25">
+        <v>0.1105991764701988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.944972</v>
+      </c>
+      <c r="H26">
+        <v>1.889944</v>
+      </c>
+      <c r="I26">
+        <v>0.4496677594366408</v>
+      </c>
+      <c r="J26">
+        <v>0.3526346507208886</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.7448065</v>
+      </c>
+      <c r="N26">
+        <v>51.489613</v>
+      </c>
+      <c r="O26">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P26">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q26">
+        <v>24.328121287918</v>
+      </c>
+      <c r="R26">
+        <v>97.31248515167201</v>
+      </c>
+      <c r="S26">
+        <v>0.06305484994835482</v>
+      </c>
+      <c r="T26">
+        <v>0.03458198555618014</v>
       </c>
     </row>
   </sheetData>
